--- a/project-1-openmp-monte-carlo-simulation/cs475-proj1-report.xlsx
+++ b/project-1-openmp-monte-carlo-simulation/cs475-proj1-report.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erick/Documents/git/cs475-parallel-programming/project-1-openmp-monte-carlo-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2FB49F85-8FEB-2744-92D3-B6F62E39EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B9B8C-3917-2C40-88AB-22940CF156EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -375,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -499,6 +499,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -544,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4417,7 +4427,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44660.415595254628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="72">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44660.415595254628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="72" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D73" sheet="report"/>
   </cacheSource>
@@ -4970,7 +4980,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -5153,13 +5163,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="threads"/>
-    <tableColumn id="2" name="trials"/>
-    <tableColumn id="3" name="probability"/>
-    <tableColumn id="4" name="megatrials/sec"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="threads"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="trials"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="probability"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="megatrials/sec"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5461,7 +5471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5511,7 +5521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5859,10 +5869,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="86" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="86" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
@@ -7437,6 +7447,9 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
     </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="M96" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
